--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2770,7 +2771,6 @@
           <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>73.69</t>
@@ -2786,6 +2786,1164 @@
       </c>
       <c r="H29" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.9379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>281.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.0448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>162.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>112.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5134</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>34.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007781</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘弘新混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>51.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3949,4 +3950,592 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010673</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010674</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全中证800六个月持有期指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4538,4 +4539,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>93.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4547,7 +4548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4558,17 +4559,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4578,14 +4599,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.93</v>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4594,14 +4637,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>42.46</v>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6686</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4610,14 +4675,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68.66</v>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4626,13 +4713,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>93.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4908,7 +4909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4919,17 +4920,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4939,14 +4960,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.31</v>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6022</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4955,14 +4998,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.93</v>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4971,14 +5036,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>42.46</v>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4987,14 +5074,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>68.66</v>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5003,13 +5112,205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>93.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5193,7 +5194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5204,17 +5205,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5224,14 +5245,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.76</v>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5240,14 +5283,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.31</v>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5256,14 +5321,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.93</v>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5272,14 +5359,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>42.46</v>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5288,14 +5397,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>68.66</v>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5304,13 +5435,941 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>93.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>2.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.31</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.93</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>42.46</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>68.66</v>
+        <v>42.46</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>93.98</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1925,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2285,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2873,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4031,7 +4218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5144,7 +5331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600584-长电科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>3.66</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>2.76</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.31</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.93</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>42.46</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>68.66</v>
+        <v>42.46</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1264 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>93.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>327.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>28.3512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>16.8962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>238.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.1084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.1430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.3667</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>147.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.4506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.5685</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5646</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3592</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5688</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515260</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝中证电子50ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160612</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华丰收债券</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007781</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘弘新混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1868,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -786,7 +2359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1828,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2112,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2472,7 +4045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3060,7 +4633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4218,7 +5791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5329,1238 +6902,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>320007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>327.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>28.3512</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>184.86</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>16.8962</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159995</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>238.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>14.1084</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002560</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安和鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>82.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>8.1430</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512480</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>105.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7.3667</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512760</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰CES半导体行业ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>147.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>6.4506</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003745</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发多元新兴股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>5.5685</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159801</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.5646</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.3592</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519672</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5688</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515260</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝中证电子50ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>24.56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5673</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006128</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河和美生活主题混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4257</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519651</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河转型增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.87</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.4213</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159813</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华国证半导体芯片ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4170</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501095</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.05</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.4041</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001404</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商移动互联网产业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3729</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>160612</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华丰收债券</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>24.62</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>21.41</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2093</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>165523</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>信诚中证信息安全指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1248</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519929</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>长信电子信息行业量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1229</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000826</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000827</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发中证百度百发策略100指数E</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1092</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005211</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银河智慧主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1022</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000965</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇丰晋信新动力混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0759</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>007781</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>天弘弘新混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>26.51</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0652</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006823</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>凯石湛混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>290005</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>泰信优势增长混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>79.94</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003333</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰信智选成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006822</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>凯石湛混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>77.93</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004917</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004918</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中银证券祥瑞混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>78.61</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>009317</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金信核心竞争力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>83.91</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>